--- a/TestDataPRright.xlsx
+++ b/TestDataPRright.xlsx
@@ -432,7 +432,7 @@
         <v>demo4</v>
       </c>
       <c r="C3" t="str">
-        <v/>
+        <v>Fail</v>
       </c>
     </row>
     <row r="4">
